--- a/data/trans_orig/P14C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FD7BFC-AE5A-4CAC-B634-DCE7C95E48CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC4DA66-33EE-4D09-A52A-8584FBDB2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ED6D394-73EE-47EC-8C27-D1329DA32B6E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3895F675-2A3D-499F-A6B6-479418000C53}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>68,2%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>71,25%</t>
@@ -92,10 +92,10 @@
     <t>69,48%</t>
   </si>
   <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>31,8%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>21,48%</t>
@@ -122,10 +122,10 @@
     <t>27,45%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -149,7 +149,7 @@
     <t>3,06%</t>
   </si>
   <si>
-    <t>12,34%</t>
+    <t>12,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>73,03%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>7,94%</t>
@@ -218,7 +218,7 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>21,43%</t>
+    <t>20,05%</t>
   </si>
   <si>
     <t>6,05%</t>
@@ -227,16 +227,16 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -245,7 +245,7 @@
     <t>93,3%</t>
   </si>
   <si>
-    <t>67,07%</t>
+    <t>72,83%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -254,16 +254,16 @@
     <t>82,75%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>71,68%</t>
   </si>
   <si>
     <t>94,83%</t>
@@ -272,25 +272,25 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>32,93%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -299,13 +299,13 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>22,54%</t>
+    <t>18,77%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>14,18%</t>
+    <t>13,87%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -314,64 +314,64 @@
     <t>75,7%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -380,10 +380,10 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -392,40 +392,40 @@
     <t>92,32%</t>
   </si>
   <si>
-    <t>62,01%</t>
+    <t>62,93%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>67,31%</t>
+    <t>67,61%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>37,99%</t>
+    <t>37,07%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>25,06%</t>
+    <t>26,07%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>21,75%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -434,13 +434,13 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>29,58%</t>
+    <t>29,77%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>19,61%</t>
+    <t>18,28%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -449,10 +449,10 @@
     <t>74,59%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>71,64%</t>
@@ -467,19 +467,19 @@
     <t>73,07%</t>
   </si>
   <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>28,36%</t>
@@ -494,16 +494,16 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>29,61%</t>
+    <t>23,85%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -512,7 +512,7 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -521,238 +521,235 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>11,36%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>14,12%</t>
+    <t>13,4%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1211C1-1091-45F2-8F3D-7E98609A06D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53DA2DE-37EE-467D-9297-F95D50194349}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3011,7 +3008,7 @@
         <v>225</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -3020,13 +3017,13 @@
         <v>98127</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3038,13 @@
         <v>16096</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -3056,13 +3053,13 @@
         <v>10160</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -3071,13 +3068,13 @@
         <v>26256</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3130,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC4DA66-33EE-4D09-A52A-8584FBDB2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{470AED9B-695F-4499-A463-27BAD0764633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3895F675-2A3D-499F-A6B6-479418000C53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E58D38-538E-4EAD-9288-E9A47100529A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
-    <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
+    <t>Población según el tiempo de diagnóstico de la diabetes en 2016 (Tasa respuesta: 8,36%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>68,2%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>31,8%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,13 +143,13 @@
     <t>7,27%</t>
   </si>
   <si>
-    <t>31,85%</t>
+    <t>35,75%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>18,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,82 +161,82 @@
     <t>73,03%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -245,7 +245,7 @@
     <t>93,3%</t>
   </si>
   <si>
-    <t>72,83%</t>
+    <t>69,06%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -254,43 +254,43 @@
     <t>82,75%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>30,94%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -299,13 +299,13 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>13,87%</t>
+    <t>13,35%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -314,64 +314,64 @@
     <t>75,7%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -380,10 +380,7 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -392,40 +389,40 @@
     <t>92,32%</t>
   </si>
   <si>
-    <t>62,93%</t>
+    <t>69,01%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>67,61%</t>
+    <t>67,53%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>37,07%</t>
+    <t>30,99%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>26,07%</t>
+    <t>24,05%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>18,36%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -434,13 +431,13 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>29,77%</t>
+    <t>31,01%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -449,61 +446,61 @@
     <t>74,59%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>23,85%</t>
+    <t>19,58%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -512,7 +509,7 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -521,76 +518,76 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>11,36%</t>
+    <t>12,53%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>13,4%</t>
+    <t>13,59%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -599,157 +596,160 @@
     <t>79,41%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>9,41%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>11,81%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1164,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53DA2DE-37EE-467D-9297-F95D50194349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A3BEC-E499-42F0-88A0-2CDD2F1C4B90}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,7 +2044,7 @@
         <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,7 +2100,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2112,10 +2112,10 @@
         <v>12040</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>70</v>
@@ -2127,10 +2127,10 @@
         <v>17478</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>70</v>
@@ -2142,13 +2142,13 @@
         <v>29517</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>1001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2178,13 +2178,13 @@
         <v>909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2193,13 +2193,13 @@
         <v>1911</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2229,13 +2229,13 @@
         <v>1213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2244,13 +2244,13 @@
         <v>1213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2318,13 +2318,13 @@
         <v>13578</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2333,13 +2333,13 @@
         <v>13883</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -2348,13 +2348,13 @@
         <v>27461</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2369,13 @@
         <v>3799</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2384,13 +2384,13 @@
         <v>5496</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2399,13 +2399,13 @@
         <v>9295</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>826</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2450,13 +2450,13 @@
         <v>826</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2524,13 +2524,13 @@
         <v>56047</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -2539,13 +2539,13 @@
         <v>56143</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -2554,13 +2554,13 @@
         <v>112190</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2575,13 @@
         <v>12839</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2590,13 +2590,13 @@
         <v>2214</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2605,13 +2605,13 @@
         <v>15052</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>4211</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2641,13 +2641,13 @@
         <v>2424</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2656,13 +2656,13 @@
         <v>6635</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2730,13 @@
         <v>57609</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>52</v>
@@ -2745,13 +2745,13 @@
         <v>63367</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>112</v>
@@ -2760,13 +2760,13 @@
         <v>120976</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>11786</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>10362</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -2811,13 +2811,13 @@
         <v>22148</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>3147</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2847,13 +2847,13 @@
         <v>1159</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -2862,13 +2862,13 @@
         <v>4306</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2936,13 @@
         <v>227594</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>204</v>
@@ -2951,13 +2951,13 @@
         <v>236760</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -2966,13 +2966,13 @@
         <v>464354</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>50119</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3002,13 +3002,13 @@
         <v>48008</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
